--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\Dinarama Neri\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\src\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E7C00A-A325-4AC1-BFDB-B627A5D266AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4502C-25E3-40E1-867C-903D8E24E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>image</t>
   </si>
@@ -47,18 +48,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>narrative 1</t>
-  </si>
-  <si>
-    <t>narrative 2</t>
-  </si>
-  <si>
-    <t>narrative 3</t>
-  </si>
-  <si>
-    <t>narrative 4</t>
-  </si>
-  <si>
     <t>250202_Globe Diagram-01</t>
   </si>
   <si>
@@ -210,13 +199,40 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>frost</t>
+  </si>
+  <si>
+    <t>white stork</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>other narrative</t>
+  </si>
+  <si>
+    <t>narratives</t>
+  </si>
+  <si>
+    <t>_frost</t>
+  </si>
+  <si>
+    <t>_white stork</t>
+  </si>
+  <si>
+    <t>_soil</t>
+  </si>
+  <si>
+    <t>_other narrative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +249,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,12 +286,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,14 +634,16 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="14.140625" style="1"/>
+    <col min="3" max="8" width="14.140625" style="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -633,486 +660,529 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA68840-3873-4829-AC3B-AE132AC5906E}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\Dinarama Neri\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\src\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4502C-25E3-40E1-867C-903D8E24E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50CF65-BE25-4B9C-BE7C-F2C57EE64D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>image</t>
   </si>
@@ -226,6 +226,63 @@
   </si>
   <si>
     <t>_other narrative</t>
+  </si>
+  <si>
+    <t>_solar tools</t>
+  </si>
+  <si>
+    <t>_biennal</t>
+  </si>
+  <si>
+    <t>formula_1</t>
+  </si>
+  <si>
+    <t>formula_2</t>
+  </si>
+  <si>
+    <t>formula_3</t>
+  </si>
+  <si>
+    <t>formula_4</t>
+  </si>
+  <si>
+    <t>formula_5</t>
+  </si>
+  <si>
+    <t>Title 24</t>
+  </si>
+  <si>
+    <t>Title 25</t>
+  </si>
+  <si>
+    <t>Title 26</t>
+  </si>
+  <si>
+    <t>Title 27</t>
+  </si>
+  <si>
+    <t>Title 28</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>Title 29</t>
+  </si>
+  <si>
+    <t>Title 30</t>
+  </si>
+  <si>
+    <t>Title 31</t>
+  </si>
+  <si>
+    <t>Title 32</t>
+  </si>
+  <si>
+    <t>Title 33</t>
+  </si>
+  <si>
+    <t>_essences</t>
   </si>
 </sst>
 </file>
@@ -294,7 +351,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,22 +688,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595550E-C25E-4557-B787-A7ED6D828667}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="14.140625" style="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.140625" style="1"/>
+    <col min="3" max="11" width="14.140625" style="1"/>
+    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,13 +726,22 @@
         <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -695,7 +761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,11 +777,11 @@
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -735,7 +801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,11 +817,11 @@
       <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,7 +841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,7 +861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,14 +877,14 @@
       <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,7 +904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -855,7 +921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -871,11 +937,11 @@
       <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -898,7 +964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -914,8 +980,11 @@
       <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -934,11 +1003,8 @@
       <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -954,11 +1020,11 @@
       <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -978,7 +1044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -994,8 +1060,11 @@
       <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1075,7 +1144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1091,11 +1160,11 @@
       <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1203,204 @@
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\Dinarama Neri\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\src\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50CF65-BE25-4B9C-BE7C-F2C57EE64D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565EC0D-86B8-4A81-A91C-288EB61730F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
   <si>
     <t>image</t>
   </si>
@@ -219,9 +219,6 @@
     <t>_frost</t>
   </si>
   <si>
-    <t>_white stork</t>
-  </si>
-  <si>
     <t>_soil</t>
   </si>
   <si>
@@ -283,6 +280,12 @@
   </si>
   <si>
     <t>_essences</t>
+  </si>
+  <si>
+    <t>_notes</t>
+  </si>
+  <si>
+    <t>_calendar</t>
   </si>
 </sst>
 </file>
@@ -688,22 +691,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595550E-C25E-4557-B787-A7ED6D828667}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="14.140625" style="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.140625" style="1"/>
+    <col min="3" max="12" width="14.140625" style="1"/>
+    <col min="13" max="13" width="17.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,28 +723,31 @@
         <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,11 +763,11 @@
       <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,11 +783,11 @@
       <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,7 +807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,11 +823,11 @@
       <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,11 +843,11 @@
       <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,11 +863,11 @@
       <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -877,14 +883,11 @@
       <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,11 +903,11 @@
       <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -920,8 +923,11 @@
       <c r="E10" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -937,11 +943,11 @@
       <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -957,14 +963,11 @@
       <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -980,11 +983,11 @@
       <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1020,11 +1023,11 @@
       <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1060,11 +1063,11 @@
       <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1080,11 +1083,11 @@
       <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1100,11 +1103,11 @@
       <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,11 +1123,11 @@
       <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1140,11 +1143,11 @@
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1160,11 +1163,11 @@
       <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1180,11 +1183,11 @@
       <c r="E23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,207 +1203,207 @@
       <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\Dinarama Neri\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\src\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565EC0D-86B8-4A81-A91C-288EB61730F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA179F5-A604-4D4F-9282-DA3BF53EE8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6841B70D-70E0-406A-AE8D-673A49632755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
   <si>
     <t>image</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>_calendar</t>
+  </si>
+  <si>
+    <t>tempvideo</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>imgs</t>
+  </si>
+  <si>
+    <t>vids</t>
+  </si>
+  <si>
+    <t>Title 34</t>
   </si>
 </sst>
 </file>
@@ -320,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +348,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +385,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,719 +727,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595550E-C25E-4557-B787-A7ED6D828667}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="12" width="14.140625" style="1"/>
-    <col min="13" max="13" width="17.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="14.140625" style="1"/>
+    <col min="1" max="1" width="14.140625" style="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="13" width="14.140625" style="1"/>
+    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="L33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo_v2\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B088C-C912-41DE-A5FE-C6D8413A5526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42303BC0-DC99-41D9-B034-03879EBA4DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2655" windowWidth="15630" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,16 +266,10 @@
     <t>3shiftingtimesGIF-ezgif.com-gif-to-mp4-converter</t>
   </si>
   <si>
-    <t>_DSC5047 (1)</t>
-  </si>
-  <si>
     <t>Shifting ecologies_Fieldwork</t>
   </si>
   <si>
     <t>Image 1_Catalogue_Kosovo Pavilion (1)</t>
-  </si>
-  <si>
-    <t>_DSC5138 (2)</t>
   </si>
   <si>
     <t>1F0A9861</t>
@@ -339,6 +333,12 @@
   </si>
   <si>
     <t>Sharri</t>
+  </si>
+  <si>
+    <t>DSC5047 (1)</t>
+  </si>
+  <si>
+    <t>DSC5138 (2)</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,16 +863,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
@@ -905,16 +905,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>20</v>
@@ -1955,13 +1955,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -1995,13 +1995,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -2035,13 +2035,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
@@ -2075,13 +2075,13 @@
         <v>63</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
@@ -2115,13 +2115,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -2155,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>61</v>
@@ -2195,13 +2195,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
@@ -2233,13 +2233,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -2271,13 +2271,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -2309,13 +2309,13 @@
         <v>12</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2351,13 +2351,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2653,7 +2653,7 @@
       <c r="B53" s="8"/>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -26538,27 +26538,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C71A86-624C-4B48-8082-94409DDFE24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02C2C3-2630-4EDA-B31B-0F3960A55D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="163">
   <si>
     <t>folder</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>other narrative</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
 </sst>
 </file>
@@ -859,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -1153,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -1189,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -1225,7 +1228,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>33</v>
@@ -1261,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -1297,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
@@ -1333,7 +1336,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -1369,7 +1372,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>43</v>
@@ -1405,7 +1408,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
@@ -1441,7 +1444,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>48</v>
@@ -1477,7 +1480,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
@@ -1513,7 +1516,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
@@ -1549,7 +1552,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>55</v>
@@ -1585,7 +1588,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>57</v>
@@ -1621,7 +1624,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>59</v>
@@ -1657,7 +1660,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>62</v>

--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02C2C3-2630-4EDA-B31B-0F3960A55D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7432AB-E4E4-4E83-A587-085A6766D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,18 +458,6 @@
     <t>1F0A9601</t>
   </si>
   <si>
-    <t>_DSC5056</t>
-  </si>
-  <si>
-    <t>_DSC5073</t>
-  </si>
-  <si>
-    <t>_DSC5035</t>
-  </si>
-  <si>
-    <t>_DSC5122</t>
-  </si>
-  <si>
     <t>IMG_1277</t>
   </si>
   <si>
@@ -510,6 +498,18 @@
   </si>
   <si>
     <t>png</t>
+  </si>
+  <si>
+    <t>DSC5056</t>
+  </si>
+  <si>
+    <t>DSC5073</t>
+  </si>
+  <si>
+    <t>DSC5035</t>
+  </si>
+  <si>
+    <t>DSC5122</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,7 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,7 +648,10 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1058,7 @@
       <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1087,7 +1096,7 @@
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1120,12 +1129,12 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1156,12 +1165,12 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1192,12 +1201,12 @@
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1228,12 +1237,12 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1264,12 +1273,12 @@
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1300,12 +1309,12 @@
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1336,12 +1345,12 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1372,12 +1381,12 @@
         <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1408,12 +1417,12 @@
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1444,12 +1453,12 @@
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1480,12 +1489,12 @@
         <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1516,12 +1525,12 @@
         <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1552,12 +1561,12 @@
         <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1588,12 +1597,12 @@
         <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1624,12 +1633,12 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1660,12 +1669,12 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2974,7 +2983,7 @@
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3290,7 +3299,7 @@
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3565,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -3599,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>64</v>
@@ -3633,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>64</v>
@@ -3667,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>64</v>
@@ -3701,7 +3710,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>64</v>
@@ -3737,7 +3746,7 @@
         <v>14</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>64</v>
@@ -3773,7 +3782,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>64</v>
@@ -3809,7 +3818,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>64</v>
@@ -3845,7 +3854,7 @@
         <v>66</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>88</v>
@@ -3879,7 +3888,7 @@
         <v>66</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>88</v>
@@ -3915,7 +3924,7 @@
         <v>66</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>88</v>
@@ -3951,7 +3960,7 @@
         <v>14</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>64</v>
@@ -9497,27 +9506,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/content.xlsx
+++ b/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7432AB-E4E4-4E83-A587-085A6766D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB17E4-01B5-409E-A96C-9E2A566241B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="162">
   <si>
     <t>folder</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>other narrative</t>
-  </si>
-  <si>
-    <t>png</t>
   </si>
   <si>
     <t>DSC5056</t>
@@ -872,7 +869,7 @@
   <dimension ref="A1:T982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -1165,7 +1162,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -1201,7 +1198,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -1237,7 +1234,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>33</v>
@@ -1273,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -1309,7 +1306,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
@@ -1345,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -1381,7 +1378,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>43</v>
@@ -1417,7 +1414,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
@@ -1453,7 +1450,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>48</v>
@@ -1489,7 +1486,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
@@ -1525,7 +1522,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
@@ -1561,7 +1558,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>55</v>
@@ -1597,7 +1594,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>57</v>
@@ -1633,7 +1630,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>59</v>
@@ -1669,7 +1666,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>62</v>
@@ -3574,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -3608,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>64</v>
@@ -3642,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>64</v>
@@ -3676,7 +3673,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>64</v>
